--- a/file.xlsx
+++ b/file.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26803"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C87773-5709-4805-B819-BE8CCA118D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\asistencia\smartback\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,20 +414,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1032500648</v>
       </c>
@@ -437,7 +443,7 @@
         <v>0.54450231481481481</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1032500648</v>
       </c>
@@ -451,7 +457,7 @@
         <v>0.58755787037037044</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1032500648</v>
       </c>
@@ -465,7 +471,7 @@
         <v>0.63061342592592595</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1032500648</v>
       </c>
@@ -479,7 +485,7 @@
         <v>0.67366898148148202</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1032500648</v>
       </c>
@@ -493,7 +499,7 @@
         <v>0.71672453703703698</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1032500648</v>
       </c>
@@ -507,7 +513,7 @@
         <v>0.75978009259259305</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>295285</v>
       </c>
@@ -521,7 +527,7 @@
         <v>0.80283564814814901</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>295285</v>
       </c>
@@ -535,7 +541,7 @@
         <v>0.84589120370370396</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>295285</v>
       </c>
@@ -549,7 +555,7 @@
         <v>0.88894675925926003</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>295285</v>
       </c>
@@ -563,7 +569,7 @@
         <v>0.93200231481481599</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>295285</v>
       </c>
@@ -577,7 +583,7 @@
         <v>0.97505787037037095</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>295285</v>
       </c>
@@ -591,7 +597,7 @@
         <v>1.0181134259259299</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>295285</v>
       </c>
@@ -605,7 +611,7 @@
         <v>1.06116898148148</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>331521</v>
       </c>
@@ -619,7 +625,7 @@
         <v>1.10422453703704</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>331521</v>
       </c>
@@ -633,7 +639,7 @@
         <v>1.1472800925925899</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>331521</v>
       </c>
@@ -647,7 +653,7 @@
         <v>1.19033564814815</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>331521</v>
       </c>
@@ -661,7 +667,7 @@
         <v>1.2333912037037</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>331521</v>
       </c>
@@ -675,7 +681,7 @@
         <v>1.2764467592592601</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>331521</v>
       </c>
